--- a/Design/Main_Data/GrowUp.xlsx
+++ b/Design/Main_Data/GrowUp.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FlushX\trunk\Design\Main_Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
   </bookViews>
@@ -15,7 +10,7 @@
     <sheet name="Define" sheetId="2" r:id="rId1"/>
     <sheet name="GrowpUp_Data" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -252,14 +247,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GrowUpID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Table_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>딜러_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -274,6 +261,14 @@
   </si>
   <si>
     <t>딜러_5</t>
+  </si>
+  <si>
+    <t>growUpID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -592,7 +587,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -627,7 +622,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -804,7 +799,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -961,7 +956,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1012,10 +1007,10 @@
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1143,7 +1138,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1">
         <v>8</v>
@@ -1271,7 +1266,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" s="1">
         <v>8</v>
@@ -1399,7 +1394,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C4" s="1">
         <v>8</v>
@@ -1527,7 +1522,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5" s="1">
         <v>8</v>
@@ -1655,7 +1650,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C6" s="1">
         <v>8</v>
